--- a/NEW HR/VILLANUEVA, RICHELLE ALEGRE.xlsx
+++ b/NEW HR/VILLANUEVA, RICHELLE ALEGRE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1617,7 +1617,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,7 +1786,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>43.5</v>
+        <v>42.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3541,7 +3541,9 @@
       <c r="A90" s="38">
         <v>44986</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="37"/>
       <c r="E90" s="9"/>
@@ -3550,10 +3552,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="37"/>
+      <c r="H90" s="37">
+        <v>1</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="45">
+        <v>45000</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38">
@@ -6489,7 +6495,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8867,17 +8873,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/VILLANUEVA, RICHELLE ALEGRE.xlsx
+++ b/NEW HR/VILLANUEVA, RICHELLE ALEGRE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -310,6 +310,12 @@
   <si>
     <t>1/25,26/2023</t>
   </si>
+  <si>
+    <t>TICC</t>
+  </si>
+  <si>
+    <t>CASUAL</t>
+  </si>
 </sst>
 </file>
 
@@ -545,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,9 +687,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1283,7 +1286,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K118" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K112" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1615,9 +1618,9 @@
   <dimension ref="A2:K264"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
-      <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
+      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="Q96" sqref="Q95:Q96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,60 +1642,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="55"/>
+      <c r="B4" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1718,18 +1723,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1776,7 +1781,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1786,7 +1791,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>42.5</v>
+        <v>46.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2052,7 +2057,7 @@
       <c r="D21" s="37"/>
       <c r="E21" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>95.207999999999998</v>
+        <v>98.957999999999998</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="13" t="str">
@@ -2077,7 +2082,7 @@
       <c r="D22" s="37"/>
       <c r="E22" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>95.207999999999998</v>
+        <v>98.957999999999998</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="str">
@@ -2102,7 +2107,7 @@
       <c r="D23" s="37"/>
       <c r="E23" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>95.207999999999998</v>
+        <v>98.957999999999998</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
@@ -2153,7 +2158,7 @@
       <c r="D25" s="37"/>
       <c r="E25" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>95.207999999999998</v>
+        <v>98.957999999999998</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="13" t="str">
@@ -2382,7 +2387,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H34" s="53">
+      <c r="H34" s="52">
         <v>7</v>
       </c>
       <c r="I34" s="9"/>
@@ -2404,7 +2409,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H35" s="53">
+      <c r="H35" s="52">
         <v>1</v>
       </c>
       <c r="I35" s="9"/>
@@ -2426,7 +2431,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H36" s="53">
+      <c r="H36" s="52">
         <v>2</v>
       </c>
       <c r="I36" s="9"/>
@@ -2452,7 +2457,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H37" s="53">
+      <c r="H37" s="52">
         <v>2</v>
       </c>
       <c r="I37" s="9"/>
@@ -2474,7 +2479,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H38" s="53">
+      <c r="H38" s="52">
         <v>2</v>
       </c>
       <c r="I38" s="9"/>
@@ -2500,7 +2505,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H39" s="53">
+      <c r="H39" s="52">
         <v>1</v>
       </c>
       <c r="I39" s="9"/>
@@ -2539,7 +2544,7 @@
       <c r="A41" s="38">
         <v>43647</v>
       </c>
-      <c r="B41" s="52"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="13">
         <v>1.25</v>
       </c>
@@ -3544,13 +3549,15 @@
       <c r="B90" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="37"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="37">
         <v>1</v>
@@ -3566,13 +3573,15 @@
         <v>45017</v>
       </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="37"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="37"/>
       <c r="I91" s="9"/>
@@ -3584,13 +3593,15 @@
         <v>45047</v>
       </c>
       <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="37"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="37"/>
       <c r="I92" s="9"/>
@@ -3601,7 +3612,9 @@
       <c r="A93" s="38">
         <v>45078</v>
       </c>
-      <c r="B93" s="20"/>
+      <c r="B93" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C93" s="13"/>
       <c r="D93" s="37"/>
       <c r="E93" s="9"/>
@@ -3613,7 +3626,9 @@
       <c r="H93" s="37"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="45">
+        <v>45082</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38">
@@ -6459,7 +6474,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -6490,12 +6505,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K118"/>
+  <dimension ref="A2:K112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6517,60 +6532,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6596,18 +6611,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6706,7 +6721,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H11" s="53"/>
+      <c r="H11" s="52"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="45">
@@ -6730,7 +6745,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H12" s="53"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
       <c r="K12" s="20" t="s">
@@ -6754,7 +6769,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H13" s="53"/>
+      <c r="H13" s="52"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
       <c r="K13" s="45">
@@ -6774,7 +6789,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H14" s="53"/>
+      <c r="H14" s="52"/>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
       <c r="K14" s="45">
@@ -6798,7 +6813,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H15" s="53"/>
+      <c r="H15" s="52"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
       <c r="K15" s="45">
@@ -6822,7 +6837,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H16" s="53"/>
+      <c r="H16" s="52"/>
       <c r="I16" s="9"/>
       <c r="J16" s="11"/>
       <c r="K16" s="45">
@@ -6844,7 +6859,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H17" s="53"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
       <c r="K17" s="20" t="s">
@@ -6864,7 +6879,7 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H18" s="53"/>
+      <c r="H18" s="52"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
@@ -8227,11 +8242,15 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38">
-        <v>44562</v>
-      </c>
-      <c r="B85" s="20"/>
+        <v>44682</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C85" s="13"/>
-      <c r="D85" s="37"/>
+      <c r="D85" s="37">
+        <v>2</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
       <c r="G85" s="13" t="str">
@@ -8241,13 +8260,17 @@
       <c r="H85" s="37"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
-        <v>44593</v>
-      </c>
-      <c r="B86" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C86" s="13"/>
       <c r="D86" s="37"/>
       <c r="E86" s="9"/>
@@ -8259,11 +8282,13 @@
       <c r="H86" s="37"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="45">
+        <v>44718</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38">
-        <v>44621</v>
+        <v>44743</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -8281,32 +8306,34 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
-        <v>44652</v>
-      </c>
-      <c r="B88" s="15"/>
+        <v>44774</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C88" s="13"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="40" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="41"/>
-      <c r="I88" s="47"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="15"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="37"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="45">
+        <v>44783</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="38">
-        <v>44682</v>
-      </c>
+      <c r="A89" s="38"/>
       <c r="B89" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
@@ -8317,15 +8344,21 @@
       <c r="H89" s="37"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20" t="s">
-        <v>83</v>
+      <c r="K89" s="45">
+        <v>44789</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
-      <c r="B90" s="20"/>
+      <c r="A90" s="38">
+        <v>44805</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="37"/>
+      <c r="D90" s="37">
+        <v>2</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
@@ -8335,14 +8368,14 @@
       <c r="H90" s="37"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="38">
-        <v>44713</v>
-      </c>
+      <c r="A91" s="38"/>
       <c r="B91" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="37"/>
@@ -8352,16 +8385,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="37"/>
+      <c r="H91" s="37">
+        <v>1</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
       <c r="K91" s="45">
-        <v>44718</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
-      <c r="B92" s="20"/>
+      <c r="B92" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C92" s="13"/>
       <c r="D92" s="37"/>
       <c r="E92" s="9"/>
@@ -8370,16 +8407,22 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H92" s="37"/>
+      <c r="H92" s="37">
+        <v>1</v>
+      </c>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="45">
+        <v>44834</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38">
-        <v>44743</v>
-      </c>
-      <c r="B93" s="20"/>
+        <v>44835</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C93" s="13"/>
       <c r="D93" s="37"/>
       <c r="E93" s="9"/>
@@ -8388,17 +8431,19 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H93" s="37"/>
+      <c r="H93" s="37">
+        <v>1</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="45">
+        <v>44846</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="38">
-        <v>44774</v>
-      </c>
+      <c r="A94" s="38"/>
       <c r="B94" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="37"/>
@@ -8408,15 +8453,19 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H94" s="37"/>
+      <c r="H94" s="37">
+        <v>1</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="45">
-        <v>44783</v>
+        <v>44858</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
+      <c r="A95" s="38">
+        <v>44866</v>
+      </c>
       <c r="B95" s="20" t="s">
         <v>48</v>
       </c>
@@ -8434,13 +8483,11 @@
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
       <c r="K95" s="45">
-        <v>44789</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="38">
-        <v>44805</v>
-      </c>
+      <c r="A96" s="38"/>
       <c r="B96" s="20" t="s">
         <v>50</v>
       </c>
@@ -8458,29 +8505,31 @@
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
       <c r="K96" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
+      <c r="A97" s="38">
+        <v>44896</v>
+      </c>
       <c r="B97" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C97" s="13"/>
-      <c r="D97" s="37"/>
+      <c r="D97" s="37">
+        <v>2</v>
+      </c>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
       <c r="G97" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H97" s="37">
-        <v>1</v>
-      </c>
+      <c r="H97" s="37"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="45">
-        <v>44819</v>
+      <c r="K97" s="20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -8502,16 +8551,14 @@
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
       <c r="K98" s="45">
-        <v>44834</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="38">
-        <v>44835</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="A99" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="37"/>
       <c r="E99" s="9"/>
@@ -8520,20 +8567,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H99" s="37">
-        <v>1</v>
-      </c>
+      <c r="H99" s="37"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="45">
-        <v>44846</v>
-      </c>
+      <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="38"/>
-      <c r="B100" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="A100" s="38">
+        <v>44927</v>
+      </c>
+      <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="37"/>
       <c r="E100" s="9"/>
@@ -8542,26 +8585,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H100" s="37">
-        <v>1</v>
-      </c>
+      <c r="H100" s="37"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="45">
-        <v>44858</v>
-      </c>
+      <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="38">
-        <v>44866</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="A101" s="38"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="13"/>
-      <c r="D101" s="37">
-        <v>1</v>
-      </c>
+      <c r="D101" s="37"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
@@ -8571,19 +8604,13 @@
       <c r="H101" s="37"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="45">
-        <v>44880</v>
-      </c>
+      <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
-      <c r="B102" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="B102" s="20"/>
       <c r="C102" s="13"/>
-      <c r="D102" s="37">
-        <v>2</v>
-      </c>
+      <c r="D102" s="37"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
       <c r="G102" s="13" t="str">
@@ -8593,21 +8620,13 @@
       <c r="H102" s="37"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="38">
-        <v>44896</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="A103" s="38"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="13"/>
-      <c r="D103" s="37">
-        <v>2</v>
-      </c>
+      <c r="D103" s="37"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
       <c r="G103" s="13" t="str">
@@ -8617,15 +8636,11 @@
       <c r="H103" s="37"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38"/>
-      <c r="B104" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="37"/>
       <c r="E104" s="9"/>
@@ -8634,19 +8649,13 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H104" s="37">
-        <v>1</v>
-      </c>
+      <c r="H104" s="37"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="45">
-        <v>44904</v>
-      </c>
+      <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="44" t="s">
-        <v>87</v>
-      </c>
+      <c r="A105" s="38"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="37"/>
@@ -8662,9 +8671,7 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="38">
-        <v>44927</v>
-      </c>
+      <c r="A106" s="38"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="37"/>
@@ -8760,116 +8767,20 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="38"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="37"/>
+      <c r="A112" s="39"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="41"/>
       <c r="E112" s="9"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="37"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="40" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H112" s="41"/>
       <c r="I112" s="9"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="38"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="37"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="38"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H114" s="37"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="38"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="37"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="38"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="37"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="38"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H117" s="37"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="40"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="40" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H118" s="41"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="15"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8929,22 +8840,22 @@
     <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="48" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="47" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="J1" s="63" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -8989,7 +8900,7 @@
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="50"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="35">
         <f>J4-1</f>
         <v>-1</v>
@@ -9010,7 +8921,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="30" t="s">
@@ -9022,16 +8933,16 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="I6" s="64" t="s">
+      <c r="G6" s="50"/>
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="48">
+      <c r="C7" s="47">
         <v>1</v>
       </c>
       <c r="D7" s="33">
@@ -9043,7 +8954,7 @@
       <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="50"/>
       <c r="I7" s="30" t="s">
         <v>39</v>
       </c>
@@ -9058,7 +8969,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="48">
+      <c r="C8" s="47">
         <v>2</v>
       </c>
       <c r="D8" s="33">
@@ -9084,7 +8995,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="48">
+      <c r="C9" s="47">
         <v>3</v>
       </c>
       <c r="D9" s="33">
@@ -9110,7 +9021,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="48">
+      <c r="C10" s="47">
         <v>4</v>
       </c>
       <c r="D10" s="33">
@@ -9136,7 +9047,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="48">
+      <c r="C11" s="47">
         <v>5</v>
       </c>
       <c r="D11" s="33">
@@ -9162,7 +9073,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="48">
+      <c r="C12" s="47">
         <v>6</v>
       </c>
       <c r="D12" s="33">
@@ -9188,7 +9099,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="48">
+      <c r="C13" s="47">
         <v>7</v>
       </c>
       <c r="D13" s="33">
@@ -9214,7 +9125,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="48">
+      <c r="C14" s="47">
         <v>8</v>
       </c>
       <c r="D14" s="33">
@@ -9240,7 +9151,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="48">
+      <c r="C15" s="47">
         <v>9</v>
       </c>
       <c r="D15" s="33">
@@ -9260,7 +9171,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="48">
+      <c r="C16" s="47">
         <v>10</v>
       </c>
       <c r="D16" s="33">
@@ -9280,7 +9191,7 @@
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="48">
+      <c r="C17" s="47">
         <v>11</v>
       </c>
       <c r="D17" s="33">
@@ -9300,7 +9211,7 @@
       </c>
     </row>
     <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="48">
+      <c r="C18" s="47">
         <v>12</v>
       </c>
       <c r="D18" s="33">
@@ -9321,7 +9232,7 @@
       </c>
     </row>
     <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="48">
+      <c r="C19" s="47">
         <v>13</v>
       </c>
       <c r="D19" s="33">
@@ -9342,7 +9253,7 @@
       </c>
     </row>
     <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="48">
+      <c r="C20" s="47">
         <v>14</v>
       </c>
       <c r="D20" s="33">
@@ -9363,7 +9274,7 @@
       </c>
     </row>
     <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="48">
+      <c r="C21" s="47">
         <v>15</v>
       </c>
       <c r="D21" s="33">
@@ -9384,7 +9295,7 @@
       </c>
     </row>
     <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="48">
+      <c r="C22" s="47">
         <v>16</v>
       </c>
       <c r="D22" s="33">
@@ -9405,7 +9316,7 @@
       </c>
     </row>
     <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="48">
+      <c r="C23" s="47">
         <v>17</v>
       </c>
       <c r="D23" s="33">
@@ -9426,7 +9337,7 @@
       </c>
     </row>
     <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="48">
+      <c r="C24" s="47">
         <v>18</v>
       </c>
       <c r="D24" s="33">
@@ -9447,7 +9358,7 @@
       </c>
     </row>
     <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="48">
+      <c r="C25" s="47">
         <v>19</v>
       </c>
       <c r="D25" s="33">
@@ -9468,7 +9379,7 @@
       </c>
     </row>
     <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="48">
+      <c r="C26" s="47">
         <v>20</v>
       </c>
       <c r="D26" s="33">
@@ -9489,7 +9400,7 @@
       </c>
     </row>
     <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="48">
+      <c r="C27" s="47">
         <v>21</v>
       </c>
       <c r="D27" s="33">
@@ -9510,7 +9421,7 @@
       </c>
     </row>
     <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="48">
+      <c r="C28" s="47">
         <v>22</v>
       </c>
       <c r="D28" s="33">
@@ -9531,7 +9442,7 @@
       </c>
     </row>
     <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="48">
+      <c r="C29" s="47">
         <v>23</v>
       </c>
       <c r="D29" s="33">
@@ -9552,7 +9463,7 @@
       </c>
     </row>
     <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="48">
+      <c r="C30" s="47">
         <v>24</v>
       </c>
       <c r="D30" s="33">
@@ -9573,7 +9484,7 @@
       </c>
     </row>
     <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="48">
+      <c r="C31" s="47">
         <v>25</v>
       </c>
       <c r="D31" s="33">
@@ -9594,7 +9505,7 @@
       </c>
     </row>
     <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="48">
+      <c r="C32" s="47">
         <v>26</v>
       </c>
       <c r="D32" s="33">
@@ -9615,7 +9526,7 @@
       </c>
     </row>
     <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="48">
+      <c r="C33" s="47">
         <v>27</v>
       </c>
       <c r="D33" s="33">
@@ -9636,7 +9547,7 @@
       </c>
     </row>
     <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="48">
+      <c r="C34" s="47">
         <v>28</v>
       </c>
       <c r="D34" s="33">
@@ -9657,7 +9568,7 @@
       </c>
     </row>
     <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="48">
+      <c r="C35" s="47">
         <v>29</v>
       </c>
       <c r="D35" s="33">
@@ -9678,7 +9589,7 @@
       </c>
     </row>
     <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="48">
+      <c r="C36" s="47">
         <v>30</v>
       </c>
       <c r="D36" s="33">
@@ -9699,7 +9610,7 @@
       </c>
     </row>
     <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="48">
+      <c r="C37" s="47">
         <v>31</v>
       </c>
       <c r="D37" s="33">
@@ -9720,7 +9631,7 @@
       </c>
     </row>
     <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="48">
+      <c r="C38" s="47">
         <v>32</v>
       </c>
       <c r="D38" s="33">
@@ -9729,7 +9640,7 @@
       <c r="G38"/>
     </row>
     <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="48">
+      <c r="C39" s="47">
         <v>33</v>
       </c>
       <c r="D39" s="33">
@@ -9738,7 +9649,7 @@
       <c r="G39"/>
     </row>
     <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="48">
+      <c r="C40" s="47">
         <v>34</v>
       </c>
       <c r="D40" s="33">
@@ -9747,7 +9658,7 @@
       <c r="G40"/>
     </row>
     <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="48">
+      <c r="C41" s="47">
         <v>35</v>
       </c>
       <c r="D41" s="33">
@@ -9756,7 +9667,7 @@
       <c r="G41"/>
     </row>
     <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="48">
+      <c r="C42" s="47">
         <v>36</v>
       </c>
       <c r="D42" s="33">
@@ -9765,7 +9676,7 @@
       <c r="G42"/>
     </row>
     <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="48">
+      <c r="C43" s="47">
         <v>37</v>
       </c>
       <c r="D43" s="33">
@@ -9774,7 +9685,7 @@
       <c r="G43"/>
     </row>
     <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="48">
+      <c r="C44" s="47">
         <v>38</v>
       </c>
       <c r="D44" s="33">
@@ -9783,7 +9694,7 @@
       <c r="G44"/>
     </row>
     <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="48">
+      <c r="C45" s="47">
         <v>39</v>
       </c>
       <c r="D45" s="33">
@@ -9792,7 +9703,7 @@
       <c r="G45"/>
     </row>
     <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="48">
+      <c r="C46" s="47">
         <v>40</v>
       </c>
       <c r="D46" s="33">
@@ -9801,7 +9712,7 @@
       <c r="G46"/>
     </row>
     <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="48">
+      <c r="C47" s="47">
         <v>41</v>
       </c>
       <c r="D47" s="33">
@@ -9810,7 +9721,7 @@
       <c r="G47"/>
     </row>
     <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="48">
+      <c r="C48" s="47">
         <v>42</v>
       </c>
       <c r="D48" s="33">
@@ -9819,7 +9730,7 @@
       <c r="G48"/>
     </row>
     <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="48">
+      <c r="C49" s="47">
         <v>43</v>
       </c>
       <c r="D49" s="33">
@@ -9828,7 +9739,7 @@
       <c r="G49"/>
     </row>
     <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="48">
+      <c r="C50" s="47">
         <v>44</v>
       </c>
       <c r="D50" s="33">
@@ -9837,7 +9748,7 @@
       <c r="G50"/>
     </row>
     <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="48">
+      <c r="C51" s="47">
         <v>45</v>
       </c>
       <c r="D51" s="33">
@@ -9846,7 +9757,7 @@
       <c r="G51"/>
     </row>
     <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="48">
+      <c r="C52" s="47">
         <v>46</v>
       </c>
       <c r="D52" s="33">
@@ -9855,7 +9766,7 @@
       <c r="G52"/>
     </row>
     <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="48">
+      <c r="C53" s="47">
         <v>47</v>
       </c>
       <c r="D53" s="33">
@@ -9864,7 +9775,7 @@
       <c r="G53"/>
     </row>
     <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="48">
+      <c r="C54" s="47">
         <v>48</v>
       </c>
       <c r="D54" s="33">
@@ -9873,7 +9784,7 @@
       <c r="G54"/>
     </row>
     <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="48">
+      <c r="C55" s="47">
         <v>49</v>
       </c>
       <c r="D55" s="33">
@@ -9882,7 +9793,7 @@
       <c r="G55"/>
     </row>
     <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="48">
+      <c r="C56" s="47">
         <v>50</v>
       </c>
       <c r="D56" s="33">
@@ -9891,7 +9802,7 @@
       <c r="G56"/>
     </row>
     <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="48">
+      <c r="C57" s="47">
         <v>51</v>
       </c>
       <c r="D57" s="33">
@@ -9900,7 +9811,7 @@
       <c r="G57"/>
     </row>
     <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="48">
+      <c r="C58" s="47">
         <v>52</v>
       </c>
       <c r="D58" s="33">
@@ -9909,7 +9820,7 @@
       <c r="G58"/>
     </row>
     <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="48">
+      <c r="C59" s="47">
         <v>53</v>
       </c>
       <c r="D59" s="33">
@@ -9918,7 +9829,7 @@
       <c r="G59"/>
     </row>
     <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="48">
+      <c r="C60" s="47">
         <v>54</v>
       </c>
       <c r="D60" s="33">
@@ -9927,7 +9838,7 @@
       <c r="G60"/>
     </row>
     <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="48">
+      <c r="C61" s="47">
         <v>55</v>
       </c>
       <c r="D61" s="33">
@@ -9936,7 +9847,7 @@
       <c r="G61"/>
     </row>
     <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="48">
+      <c r="C62" s="47">
         <v>56</v>
       </c>
       <c r="D62" s="33">
@@ -9945,7 +9856,7 @@
       <c r="G62"/>
     </row>
     <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="48">
+      <c r="C63" s="47">
         <v>57</v>
       </c>
       <c r="D63" s="33">
@@ -9954,7 +9865,7 @@
       <c r="G63"/>
     </row>
     <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="48">
+      <c r="C64" s="47">
         <v>58</v>
       </c>
       <c r="D64" s="33">
@@ -9963,7 +9874,7 @@
       <c r="G64"/>
     </row>
     <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="48">
+      <c r="C65" s="47">
         <v>59</v>
       </c>
       <c r="D65" s="33">
@@ -9972,7 +9883,7 @@
       <c r="G65"/>
     </row>
     <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="48">
+      <c r="C66" s="47">
         <v>60</v>
       </c>
       <c r="D66" s="33">

--- a/NEW HR/VILLANUEVA, RICHELLE ALEGRE.xlsx
+++ b/NEW HR/VILLANUEVA, RICHELLE ALEGRE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1620,7 +1620,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="Q96" sqref="Q95:Q96"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,7 +1781,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1791,7 +1791,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>46.25</v>
+        <v>50.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2057,7 +2057,7 @@
       <c r="D21" s="37"/>
       <c r="E21" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>98.957999999999998</v>
+        <v>103.958</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="13" t="str">
@@ -2082,7 +2082,7 @@
       <c r="D22" s="37"/>
       <c r="E22" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>98.957999999999998</v>
+        <v>103.958</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="str">
@@ -2107,7 +2107,7 @@
       <c r="D23" s="37"/>
       <c r="E23" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>98.957999999999998</v>
+        <v>103.958</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
@@ -2158,7 +2158,7 @@
       <c r="D25" s="37"/>
       <c r="E25" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>98.957999999999998</v>
+        <v>103.958</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="13" t="str">
@@ -3615,13 +3615,15 @@
       <c r="B93" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="37"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="37"/>
       <c r="I93" s="9"/>
@@ -3635,13 +3637,15 @@
         <v>45108</v>
       </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="37"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="37"/>
       <c r="I94" s="9"/>
@@ -3652,37 +3656,51 @@
       <c r="A95" s="38">
         <v>45139</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
+      <c r="B95" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="37"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="37"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="45">
+        <v>45154</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38">
         <v>45170</v>
       </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="B96" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="37"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="37"/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H96" s="37">
+        <v>1</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="45">
+        <v>45177</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38">
@@ -6508,9 +6526,9 @@
   <dimension ref="A2:K112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomLeft" activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6669,7 +6687,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.7079999999999984</v>
+        <v>0.70799999999999841</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -8574,11 +8592,15 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
-        <v>44927</v>
-      </c>
-      <c r="B100" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C100" s="13"/>
-      <c r="D100" s="37"/>
+      <c r="D100" s="37">
+        <v>1</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13" t="str">
@@ -8588,7 +8610,9 @@
       <c r="H100" s="37"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="45">
+        <v>45195</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
@@ -8784,17 +8808,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
